--- a/medicine/Enfance/Chronologie_de_Spirou/Chronologie_de_Spirou.xlsx
+++ b/medicine/Enfance/Chronologie_de_Spirou/Chronologie_de_Spirou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article présente la chronologie des principaux événements qui ont marqué l'histoire du journal Spirou.
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1938
-14 avril 1938 : Publication du no 0.
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 avril 1938 : Publication du no 0.
 21 avril 1938 : Publication du no 1. Première publication des séries Spirou et Fantasio (Les Aventures de Spirou à l'époque), Tif et Tondu (Les Aventures de Tif à l'époque), Dick Tracy et Bill l'Albatros. Première parution du Fureteur (Le Fureteur vous dira à l'époque). Première publication des auteurs Rob-Vel, Jean Doisy et Fernand Dineur.
 19 mai 1938 : Première apparition, dans le no 5/38, du personnage de Tondu dans la série Tif et Tondu.
 août 1938 : Lancement du club les Amis de Spirou.
-27 octobre 1938 : Première publication de la version néerlandaise nommée Robbedoes.
-1939
-12 janvier 1939 : Première parution, dans le no 2/39, de la série Red Ryder (nommée Cavalier Rouge).
+27 octobre 1938 : Première publication de la version néerlandaise nommée Robbedoes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Années 1930</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 janvier 1939 : Première parution, dans le no 2/39, de la série Red Ryder (nommée Cavalier Rouge).
 2 mars 1939 : Première parution, dans le no 9/39, de la série Superman (nommée Marc Costa, Hercule moderne).
 6 avril 1939 : Passage à vingt pages et au format 38x28 dans le no 14. Première parution de l'auteur Jijé avec l'histoire Le Mystère de la clef hindoue.
 8 juin 1939 : Première apparition, dans le no 23/39, de l'écureuil Spip dans la série Spirou.
@@ -529,336 +580,1158 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Années 1940</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1940
-4 janvier 1940 : Première publication de Maurice Tillieux avec des illustrations du Fureteur dans le no 1/40.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 janvier 1940 : Première publication de Maurice Tillieux avec des illustrations du Fureteur dans le no 1/40.
 9 mai 1940 : Interruption de la parution du journal au no 19/40 à cause de l'invasion allemande.
 22 août 1940 : Fin de l'interruption de publication avec la sortie du no 34/40. Passage à huit pages.
 29 août 1940 : Première parution de la série Brick Bradford dans le no 35/40.
-14 novembre 1940 : Passage à douze pages au no 46/40.
-1941
-6 février 1941 : Début de la publication, dans la no 6/41, de la biographie de Don Bosco, ami des jeunes par Jijé.
+14 novembre 1940 : Passage à douze pages au no 46/40.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 février 1941 : Début de la publication, dans la no 6/41, de la biographie de Don Bosco, ami des jeunes par Jijé.
 5 juin 1941 : Passage à huit pages à partir du no 23/41 à cause du rationnement de papier.
 26 juin 1941 : Passage à six pages à partir du no 26/41 à cause du rationnement de papier.
 24 juillet 1941 : Passage à douze pages à partir du no 30/41 et adoption du format 20x28.
-2 octobre 1941 : Début de la publication de la série Les Aventures de Jean Valhardi dans le no 40/41.
-1942
-23 juillet 1942 : Début de la publication, dans la no 30/42, de la série L'Épervier bleu. Première publication de l'auteur Sirius.
+2 octobre 1941 : Début de la publication de la série Les Aventures de Jean Valhardi dans le no 40/41.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23 juillet 1942 : Début de la publication, dans la no 30/42, de la série L'Épervier bleu. Première publication de l'auteur Sirius.
 27 août 1942 : Passage à huit pages à partir du no 35/42 à cause des restrictions de papier.
-17 septembre 1942 : La série Les Aventures de Jean Valhardi est publiée sur la couverture à partir du no 38/42, à la place de la série Spirou.
-1943
-2 septembre 1943 : Le journal est interdis par l'occupant allemand, le dernier numéro publié est le no 35/43. Dernier Spirou de Rob-Vel.
+17 septembre 1942 : La série Les Aventures de Jean Valhardi est publiée sur la couverture à partir du no 38/42, à la place de la série Spirou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 septembre 1943 : Le journal est interdis par l'occupant allemand, le dernier numéro publié est le no 35/43. Dernier Spirou de Rob-Vel.
 1er novembre 1943 : Sortie du numéro spécial L'Espiègle au grand cœur pour contourner la censure allemande.
-1er décembre 1943 : Sortie du numéro spécial L'Almanach 1944.
-1944
-5 octobre 1944 : La libération de Charleroi permet au journal de reparaitre.
+1er décembre 1943 : Sortie du numéro spécial L'Almanach 1944.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 octobre 1944 : La libération de Charleroi permet au journal de reparaitre.
 12 octobre 1944 : Première publication de Jean-Michel Charlier qui s'occupe de rubriques rédactionnelles dans le no 2/44.
 2 novembre 1944 : Passage à douze pages à partir du no 5/44.
-16 novembre 1944 : Première publication d'André Franquin avec l'illustration du roman Aile rouge dans le no 7/44.
-1945
-15 février 1945 : Désormais le journal ne parait que tous les quinze jours à cause des restrictions de papier.
+16 novembre 1944 : Première publication d'André Franquin avec l'illustration du roman Aile rouge dans le no 7/44.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15 février 1945 : Désormais le journal ne parait que tous les quinze jours à cause des restrictions de papier.
 6 mai 1945 : Passage à huit pages à partir du no 13/45.
 28 juin 1945 : Le journal redevient hebdomadaire.
-2 août 1945 : Passage à douze pages à partir du no 23/45.
-1946
-3 janvier 1946 : Passage à seize pages à partir du no 1/46.
+2 août 1945 : Passage à douze pages à partir du no 23/45.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 janvier 1946 : Passage à seize pages à partir du no 1/46.
 10 janvier 1946 : Passage à une numérotation continue, cette nouvelle numérotation débute avec le no 404 qui est le nombre de semaines écoulées depuis la création du journal.
 20 juin 1946 : André Franquin récupère, à partir du no 427, la série Spirou et Fantasio en plein milieu de l'histoire La Maison préfabriquée.
 4 juillet 1946 : Première publication, dans le no 429, d'Eddy Paape qui récupère la série Les Aventures de Jean Valhardi.
-7 décembre 1946 : Première parution de la série Lucky Luke dans le hors-série Almanach 1947. Première publication de Morris.
-1947
-2 janvier 1947 : Passage à vingt pages. Suppression du bandeau-tire. Première parution de la série Les Aventures de Buck Danny dans le no 455. Première publication de Victor Hubinon.
+7 décembre 1946 : Première parution de la série Lucky Luke dans le hors-série Almanach 1947. Première publication de Morris.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 janvier 1947 : Passage à vingt pages. Suppression du bandeau-tire. Première parution de la série Les Aventures de Buck Danny dans le no 455. Première publication de Victor Hubinon.
 8 mai 1947 : Première parution, dans le no 473, de Will avec une histoire complète intitulée Tempête
-27 novembre 1947 : Première parution de Blondin et Cirage dans le no 502, une série publiée auparavant dans la revue Petits Belges.
-1948
-21 octobre 1948 : Début de la biographie de Robert Baden-Powell par Jijé au no 549. Première publication de Mitacq avec l'illustration d'une nouvelle.
-1949
-21 juillet 1949 : Will récupère Tif et Tondu au no 588 après le rachat de la série par les éditions Dupuis.
+27 novembre 1947 : Première parution de Blondin et Cirage dans le no 502, une série publiée auparavant dans la revue Petits Belges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>21 octobre 1948 : Début de la biographie de Robert Baden-Powell par Jijé au no 549. Première publication de Mitacq avec l'illustration d'une nouvelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Années 1940</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21 juillet 1949 : Will récupère Tif et Tondu au no 588 après le rachat de la série par les éditions Dupuis.
 20 octobre 1949 : Première parution, dans le no 601, d'Yvan Delporte qui scénarise l'histoire Jean Valhardi intitulée À la poursuite de Max Clair.
 17 novembre 1949 : Passage à vingt-quatre pages au no 605. Changement de bandeau-titre. Début de la parution de la série Surcouf.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Années 1950</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1950
-12 janvier 1950 : Première publication de René Follet dans le no 613 avec l'illustration d'un conte.
-1951
-1er février 1951 : Première parution de la série éducative Oncle Paul dans le no 668.
-9 août 1951 : Premier Oncle Paul scénarisé par Octave Joly dans le no 695.
-1952
-1er mai 1952 : Première publication de la série automobile Starter dans le no 733.
-11 septembre 1952 : Début de la publication, dans le no 752, de la série Johan et Pirlouit (titré seulement Johan), publiée auparavant dans des quotidiens. Première publication de Peyo.
-1953
-8 janvier 1953 : La série L'Épervier bleu est censurée. Dernière publication dans le no 769 avant une vingtaine d'années.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12 janvier 1950 : Première publication de René Follet dans le no 613 avec l'illustration d'un conte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1er février 1951 : Première parution de la série éducative Oncle Paul dans le no 668.
+9 août 1951 : Premier Oncle Paul scénarisé par Octave Joly dans le no 695.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1er mai 1952 : Première publication de la série automobile Starter dans le no 733.
+11 septembre 1952 : Début de la publication, dans le no 752, de la série Johan et Pirlouit (titré seulement Johan), publiée auparavant dans des quotidiens. Première publication de Peyo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>8 janvier 1953 : La série L'Épervier bleu est censurée. Dernière publication dans le no 769 avant une vingtaine d'années.
 15 janvier 1953 : Début, dans le no 770, de la publication de la biographie, Stanley.
 12 février 1953 : Début, dans le no 774, de la publication de la biographie, Xavier, raconté par le ménestrel.
 11 juin 1953 : Nouvelle format de couverture à partir du no 791, avec 3/4 d'une planche et un dessin humoristique d'André Franquin.
 23 juillet 1953 : Dernière publication, dans le no 797, de la série Jo Lumière, les séries américaines disparaissent du journal.
 15 octobre 1953 : Premier scénario d'Albert Desprechins dans le no 809 avec l'histoire Oscar et ses mystères.
 12 novembre 1953 : Sirius créé la série Les Timour dans le no 813.
-31 décembre 1953 : Première publication de la série Kim Devil dans le no 820.
-1954
-4 mars 1954 : Première publication de la série Jerry Spring dans le no 829.
+31 décembre 1953 : Première publication de la série Kim Devil dans le no 820.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4 mars 1954 : Première publication de la série Jerry Spring dans le no 829.
 25 novembre 1954 : Première publication de la série La Patrouille des Castors dans le no 867.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Années 1960</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1968
-13 juin 1968 (no 1574) : Premières histoires du prolifique Raoul Cauvin qui relatent les déboires de deux puces, Arthur et Léopold.
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>13 juin 1968 (no 1574) : Premières histoires du prolifique Raoul Cauvin qui relatent les déboires de deux puces, Arthur et Léopold.
 29 octobre 1968 (no 1585) : Le dessinateur Louis Salvérius, qui souhaite se lancer dans le western, créé un petit chercheur d'or, mais Raoul Cauvin le convainc que la guerre de Sécession constitue un meilleur sujet de série. Ainsi naissent Les Tuniques bleues, reprises à la mort de Salvérius en 1972 par Lambil.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Années 1970</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1970
-26 février 1970 (no 1663) : François Walthéry, un jeune dessinateur qui travaille dans les studios Peyo (Les Schtroumpfs, Benoît Brisefer), souhaite créer sa propre série. Yvan Delporte, qui vient de quitter le poste de rédacteur en chef du journal, lui suggère une hôtesse de l'air : Natacha.
-24 septembre 1970 (no 1693) : Roger Leloup lance Yoko Tsuno avec le récit complet Hold-up en hi-fi[1]
-1977
-17 mars 1977 (no 2031) : Le Trombone illustré est lancé par Franquin et Delporte et animé par des dessinateurs venus de tous horizons. Véritable laboratoire d'idées conçu dans la cave de Spirou, Le Trombone connaîtra une existence brève mais marquante (à commencer par les Idées noires de Franquin).
-1978
-20 avril 1978 (no 2088) : Début des Démêlés d'Arnest Ringard et de la taupe Augraphie, suggérés à Frédéric Jannin par Franquin</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>26 février 1970 (no 1663) : François Walthéry, un jeune dessinateur qui travaille dans les studios Peyo (Les Schtroumpfs, Benoît Brisefer), souhaite créer sa propre série. Yvan Delporte, qui vient de quitter le poste de rédacteur en chef du journal, lui suggère une hôtesse de l'air : Natacha.
+24 septembre 1970 (no 1693) : Roger Leloup lance Yoko Tsuno avec le récit complet Hold-up en hi-fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>17 mars 1977 (no 2031) : Le Trombone illustré est lancé par Franquin et Delporte et animé par des dessinateurs venus de tous horizons. Véritable laboratoire d'idées conçu dans la cave de Spirou, Le Trombone connaîtra une existence brève mais marquante (à commencer par les Idées noires de Franquin).</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20 avril 1978 (no 2088) : Début des Démêlés d'Arnest Ringard et de la taupe Augraphie, suggérés à Frédéric Jannin par Franquin</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Années 1980</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1980
-13 novembre 1980 (no 2222) Début des « hauts de pages », des dessins caustiques et irrévérencieux situés en haut des pages du journal et destinés à révéler aux lecteurs tous les secrets du journal. D'abord assurés par Frank, André Geerts et Yslaire, ils seront très vite repris par Yann et Conrad qui illustreront 576 hauts de page.
-1981
-19 mars 1981 (no 2240) : Apparition des Femmes en blanc de Philippe Bercovici et Raoul Cauvin.
-1983
-29 septembre 1983 (no 2372) : Création de Pierre Tombal le fossoyeur par Marc Hardy et Raoul Cauvin.
-27 octobre 1983 (no 2376) : Création de Jojo, un peu par hasard ; une des annonces publicitaires n'étant pas arrivée à temps, la rédaction demande à Geerts de boucher le trou par un gag dessiné.
-1985
-6 août 1985 (no 2469) : Rencontre improbable dans le même numéro entre les Petits Hommes dans Le Pickpocket et le Scrameustache qui vit sa propre aventure sous le titre Kromoks en folie.
-1986
-23 décembre 1986 (no 2541) : Le numéro « spécial Noël » voit l'arrivée d'un petit garçon aux cheveux blonds du nom de Cédric.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>13 novembre 1980 (no 2222) Début des « hauts de pages », des dessins caustiques et irrévérencieux situés en haut des pages du journal et destinés à révéler aux lecteurs tous les secrets du journal. D'abord assurés par Frank, André Geerts et Yslaire, ils seront très vite repris par Yann et Conrad qui illustreront 576 hauts de page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>19 mars 1981 (no 2240) : Apparition des Femmes en blanc de Philippe Bercovici et Raoul Cauvin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>29 septembre 1983 (no 2372) : Création de Pierre Tombal le fossoyeur par Marc Hardy et Raoul Cauvin.
+27 octobre 1983 (no 2376) : Création de Jojo, un peu par hasard ; une des annonces publicitaires n'étant pas arrivée à temps, la rédaction demande à Geerts de boucher le trou par un gag dessiné.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>6 août 1985 (no 2469) : Rencontre improbable dans le même numéro entre les Petits Hommes dans Le Pickpocket et le Scrameustache qui vit sa propre aventure sous le titre Kromoks en folie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23 décembre 1986 (no 2541) : Le numéro « spécial Noël » voit l'arrivée d'un petit garçon aux cheveux blonds du nom de Cédric.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Années 1990</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1992
-7 octobre 1992 (no 2843) : Début des aventures horrifiques de Mélusine sous la plume de Clarke, qui avait choisi comme héros de ses premières histoires, deux ans plus tôt, Les Cambrioleurs.
-1993
-11 août 1993 (no 2887) : Création du personnage de Kid Paddle par Midam pour illustrer la rubrique sur les jeux vidéo, Shazam. Il prendra son indépendance deux ans plus tard.
-1995
-11 octobre 1995 : le no 3000 est accompagné d'un CD fournissant la bande-son du journal.
-1998
-22 avril 1998 (no 3132) : Numéro spécial pour les 60 ans du journal sous forme d'un magazine daté du 22 avril 2038 fêtant « officiellement » les 100 ans du journal et reprenant à l'intérieur un fac-similé du journal spécial 60 ans.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>7 octobre 1992 (no 2843) : Début des aventures horrifiques de Mélusine sous la plume de Clarke, qui avait choisi comme héros de ses premières histoires, deux ans plus tôt, Les Cambrioleurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11 août 1993 (no 2887) : Création du personnage de Kid Paddle par Midam pour illustrer la rubrique sur les jeux vidéo, Shazam. Il prendra son indépendance deux ans plus tard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>11 octobre 1995 : le no 3000 est accompagné d'un CD fournissant la bande-son du journal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22 avril 1998 (no 3132) : Numéro spécial pour les 60 ans du journal sous forme d'un magazine daté du 22 avril 2038 fêtant « officiellement » les 100 ans du journal et reprenant à l'intérieur un fac-similé du journal spécial 60 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Années 2000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2000
-5 janvier 2000 (no 3221) : Le premier numéro de l'année est « victime » du bug de l'an 2000. Édité sur papier vieilli et jauni, il contient des séries « rétro » (Kid Paddle devient Kid Pagaille, Les Paparazzi deviennent Les Échotiers, Le Boss devient Monsieur le directeur de la rédaction, etc.).
-2004
-28 avril 2004 (no 3446) : Spirou et Fantasio reviennent après 6 ans d'absence. Pour l'occasion, le journal change de formule.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5 janvier 2000 (no 3221) : Le premier numéro de l'année est « victime » du bug de l'an 2000. Édité sur papier vieilli et jauni, il contient des séries « rétro » (Kid Paddle devient Kid Pagaille, Les Paparazzi deviennent Les Échotiers, Le Boss devient Monsieur le directeur de la rédaction, etc.).</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>28 avril 2004 (no 3446) : Spirou et Fantasio reviennent après 6 ans d'absence. Pour l'occasion, le journal change de formule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chronologie_de_Spirou</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Années 2010</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2013
-Année des 75 ans du journal célébrés avec la création d'un Spirou tour passant par les grandes villes de Belgique, de France et de Suisse.</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Année des 75 ans du journal célébrés avec la création d'un Spirou tour passant par les grandes villes de Belgique, de France et de Suisse.</t>
         </is>
       </c>
     </row>
